--- a/data/trans_orig/P57B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4597FEB9-3FBE-4425-9591-64E2C32A06EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB438E71-2899-4C8E-95F3-D81846C96FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CC7A1B7-3649-4650-A06D-984F175AC40A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A63A1CF-B863-4B75-AF6B-ED37CF71D56B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,16 +74,16 @@
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>6,25%</t>
@@ -92,10 +92,10 @@
     <t>3,57%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,589 +134,589 @@
     <t>46,23%</t>
   </si>
   <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>25,78%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
   </si>
   <si>
     <t>37,74%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>51,64%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>54,12%</t>
   </si>
   <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C138F26-3362-4CA4-832E-AB2AD08C83F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7754D12C-A049-4E0F-A438-68E70CC329A3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1542,13 +1542,13 @@
         <v>62285</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1563,13 @@
         <v>54288</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -1578,13 +1578,13 @@
         <v>61475</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>182</v>
@@ -1593,13 +1593,13 @@
         <v>115763</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1614,13 @@
         <v>155840</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -1629,13 +1629,13 @@
         <v>193599</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>506</v>
@@ -1644,13 +1644,13 @@
         <v>349438</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1665,13 @@
         <v>308933</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>494</v>
@@ -1680,13 +1680,13 @@
         <v>304996</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>827</v>
@@ -1695,13 +1695,13 @@
         <v>613929</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1769,13 @@
         <v>93681</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -1784,13 +1784,13 @@
         <v>43738</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>125</v>
@@ -1799,13 +1799,13 @@
         <v>137419</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1820,13 @@
         <v>80770</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>189</v>
@@ -1835,13 +1835,13 @@
         <v>123582</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>275</v>
@@ -1850,13 +1850,13 @@
         <v>204352</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1871,13 @@
         <v>344580</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>563</v>
@@ -1886,13 +1886,13 @@
         <v>386057</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>889</v>
@@ -1901,13 +1901,13 @@
         <v>730638</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1922,13 @@
         <v>519044</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>693</v>
@@ -1937,13 +1937,13 @@
         <v>504968</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1188</v>
@@ -1952,13 +1952,13 @@
         <v>1024011</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2026,13 @@
         <v>19377</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -2041,13 +2041,13 @@
         <v>22158</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -2056,13 +2056,13 @@
         <v>41535</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2077,13 @@
         <v>50452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -2092,13 +2092,13 @@
         <v>51371</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -2107,13 +2107,13 @@
         <v>101823</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2128,13 @@
         <v>253394</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>373</v>
@@ -2143,13 +2143,13 @@
         <v>260283</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
         <v>610</v>
@@ -2158,10 +2158,10 @@
         <v>513676</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>148</v>
@@ -2179,13 +2179,13 @@
         <v>404588</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>578</v>
@@ -2194,13 +2194,13 @@
         <v>539107</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>948</v>
@@ -2209,13 +2209,13 @@
         <v>943695</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,7 +2271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2283,13 @@
         <v>42090</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>85</v>
@@ -2298,13 +2298,13 @@
         <v>54321</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>136</v>
@@ -2313,13 +2313,13 @@
         <v>96411</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2334,13 @@
         <v>71950</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -2349,13 +2349,13 @@
         <v>90224</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>223</v>
@@ -2364,13 +2364,13 @@
         <v>162174</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2385,13 @@
         <v>284585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>510</v>
@@ -2400,13 +2400,13 @@
         <v>380418</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>813</v>
@@ -2415,13 +2415,13 @@
         <v>665003</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2436,13 @@
         <v>566777</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>827</v>
@@ -2451,13 +2451,13 @@
         <v>623280</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>1393</v>
@@ -2466,13 +2466,13 @@
         <v>1190057</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2540,13 @@
         <v>189715</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>253</v>
@@ -2555,13 +2555,13 @@
         <v>156237</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>420</v>
@@ -2570,13 +2570,13 @@
         <v>345952</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2591,13 @@
         <v>262137</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>530</v>
@@ -2606,13 +2606,13 @@
         <v>341382</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>823</v>
@@ -2621,13 +2621,13 @@
         <v>603519</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2642,13 @@
         <v>1085544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>1862</v>
@@ -2657,28 +2657,28 @@
         <v>1261589</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>2957</v>
       </c>
       <c r="N31" s="7">
-        <v>2347134</v>
+        <v>2347133</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,37 +2693,37 @@
         <v>1845698</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>2710</v>
       </c>
       <c r="I32" s="7">
-        <v>2042280</v>
+        <v>2042279</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>4529</v>
       </c>
       <c r="N32" s="7">
-        <v>3887979</v>
+        <v>3887978</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>225</v>
@@ -2756,7 +2756,7 @@
         <v>5355</v>
       </c>
       <c r="I33" s="7">
-        <v>3801489</v>
+        <v>3801488</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2771,7 +2771,7 @@
         <v>8729</v>
       </c>
       <c r="N33" s="7">
-        <v>7184584</v>
+        <v>7184583</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>

--- a/data/trans_orig/P57B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB438E71-2899-4C8E-95F3-D81846C96FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7620805-40C4-4461-8309-4DE168BDDCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A63A1CF-B863-4B75-AF6B-ED37CF71D56B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D045E499-ACE2-4042-A273-CDF436B228AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Todo o casi todo el tiempo</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,59%</t>
@@ -299,7 +299,7 @@
     <t>56,49%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>9,02%</t>
@@ -410,7 +410,7 @@
     <t>51,17%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,66%</t>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7754D12C-A049-4E0F-A438-68E70CC329A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2CA79-B50F-45E7-B463-DEB90F7226C1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7620805-40C4-4461-8309-4DE168BDDCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A79F38-18D2-4D8D-A7FE-F705B6209064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D045E499-ACE2-4042-A273-CDF436B228AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3AD20F3-5D97-4554-9522-0437CE7372F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,16 +74,16 @@
     <t>3,73%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>6,25%</t>
@@ -92,10 +92,10 @@
     <t>3,57%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,619 +104,619 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
   </si>
   <si>
     <t>56,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2CA79-B50F-45E7-B463-DEB90F7226C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D00CA2-755A-46C0-8F30-4B5A852116A5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1542,13 +1542,13 @@
         <v>62285</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1563,13 @@
         <v>54288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -1578,13 +1578,13 @@
         <v>61475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>182</v>
@@ -1593,13 +1593,13 @@
         <v>115763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1614,13 @@
         <v>155840</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>327</v>
@@ -1629,13 +1629,13 @@
         <v>193599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>506</v>
@@ -1644,13 +1644,13 @@
         <v>349438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1665,13 @@
         <v>308933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>494</v>
@@ -1680,13 +1680,13 @@
         <v>304996</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>827</v>
@@ -1695,13 +1695,13 @@
         <v>613929</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1769,13 @@
         <v>93681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -1784,13 +1784,13 @@
         <v>43738</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>125</v>
@@ -1799,13 +1799,13 @@
         <v>137419</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1820,13 @@
         <v>80770</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>189</v>
@@ -1835,13 +1835,13 @@
         <v>123582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>275</v>
@@ -1850,13 +1850,13 @@
         <v>204352</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1871,13 @@
         <v>344580</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>563</v>
@@ -1886,13 +1886,13 @@
         <v>386057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>889</v>
@@ -1901,13 +1901,13 @@
         <v>730638</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1922,13 @@
         <v>519044</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>693</v>
@@ -1937,13 +1937,13 @@
         <v>504968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>1188</v>
@@ -1952,13 +1952,13 @@
         <v>1024011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2026,13 @@
         <v>19377</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -2041,13 +2041,13 @@
         <v>22158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -2056,13 +2056,13 @@
         <v>41535</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2077,13 @@
         <v>50452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -2092,13 +2092,13 @@
         <v>51371</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>114</v>
@@ -2107,13 +2107,13 @@
         <v>101823</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2128,13 @@
         <v>253394</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>373</v>
@@ -2143,13 +2143,13 @@
         <v>260283</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>610</v>
@@ -2158,10 +2158,10 @@
         <v>513676</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>148</v>
@@ -2179,13 +2179,13 @@
         <v>404588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>578</v>
@@ -2194,13 +2194,13 @@
         <v>539107</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>948</v>
@@ -2209,13 +2209,13 @@
         <v>943695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,7 +2271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2283,13 @@
         <v>42090</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>85</v>
@@ -2298,13 +2298,13 @@
         <v>54321</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>136</v>
@@ -2313,13 +2313,13 @@
         <v>96411</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2334,13 @@
         <v>71950</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -2349,13 +2349,13 @@
         <v>90224</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>223</v>
@@ -2364,13 +2364,13 @@
         <v>162174</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2385,13 @@
         <v>284585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="H26" s="7">
         <v>510</v>
@@ -2400,13 +2400,13 @@
         <v>380418</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>813</v>
@@ -2415,13 +2415,13 @@
         <v>665003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2436,13 @@
         <v>566777</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>827</v>
@@ -2451,13 +2451,13 @@
         <v>623280</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>1393</v>
@@ -2466,13 +2466,13 @@
         <v>1190057</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2540,13 @@
         <v>189715</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>253</v>
@@ -2555,13 +2555,13 @@
         <v>156237</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>420</v>
@@ -2570,13 +2570,13 @@
         <v>345952</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2591,13 @@
         <v>262137</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>530</v>
@@ -2606,13 +2606,13 @@
         <v>341382</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>823</v>
@@ -2621,13 +2621,13 @@
         <v>603519</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2642,13 @@
         <v>1085544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>1862</v>
@@ -2657,28 +2657,28 @@
         <v>1261589</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>2957</v>
       </c>
       <c r="N31" s="7">
-        <v>2347133</v>
+        <v>2347134</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,37 +2693,37 @@
         <v>1845698</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>2710</v>
       </c>
       <c r="I32" s="7">
-        <v>2042279</v>
+        <v>2042280</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>4529</v>
       </c>
       <c r="N32" s="7">
-        <v>3887978</v>
+        <v>3887979</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>225</v>
@@ -2756,7 +2756,7 @@
         <v>5355</v>
       </c>
       <c r="I33" s="7">
-        <v>3801488</v>
+        <v>3801489</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2771,7 +2771,7 @@
         <v>8729</v>
       </c>
       <c r="N33" s="7">
-        <v>7184583</v>
+        <v>7184584</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
